--- a/Question/FINAL450.xlsx
+++ b/Question/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE5B080-2F71-43CB-8625-70FBED0F425D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A88ED-780E-48DE-B02F-28684077D003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1435,8 +1435,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,6 +1459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,14 +1495,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,18 +1518,18 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1536,18 +1555,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70A56465-C15D-4482-A0DF-D9800CB60C3A}" name="Table1" displayName="Table1" ref="A1:C477" totalsRowShown="0" dataDxfId="2" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:C477" xr:uid="{D7B63654-43E5-4078-9829-1605C4AFBB3F}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Dynamic Programming"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70A56465-C15D-4482-A0DF-D9800CB60C3A}" name="Table1" displayName="Table1" ref="A1:C477" totalsRowShown="0" dataDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:C477" xr:uid="{D7B63654-43E5-4078-9829-1605C4AFBB3F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{35135231-BE9F-4E86-9840-942DC9FFD671}" name="Topic:" dataDxfId="1" dataCellStyle="40% - Accent4"/>
-    <tableColumn id="2" xr3:uid="{0B7EDE6B-8CD1-4576-ABD0-F147294E46FE}" name="Problem: " dataDxfId="0" dataCellStyle="40% - Accent4"/>
-    <tableColumn id="3" xr3:uid="{FC1D6504-FB2F-4613-9E25-31809EC3E484}" name="Done [yes or no] " dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{35135231-BE9F-4E86-9840-942DC9FFD671}" name="Topic:" dataDxfId="2" dataCellStyle="40% - Accent4"/>
+    <tableColumn id="2" xr3:uid="{0B7EDE6B-8CD1-4576-ABD0-F147294E46FE}" name="Problem: " dataDxfId="1" dataCellStyle="40% - Accent4"/>
+    <tableColumn id="3" xr3:uid="{FC1D6504-FB2F-4613-9E25-31809EC3E484}" name="Done [yes or no] " dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1852,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B464" sqref="B464"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1874,271 +1887,271 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2215,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2226,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2270,21 +2283,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +2308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2317,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -2339,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -2361,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
@@ -2394,17 +2407,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -2415,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -2448,7 +2461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -2459,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -2470,7 +2483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -2481,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -2492,7 +2505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -2503,7 +2516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>52</v>
       </c>
@@ -2547,7 +2560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -2558,7 +2571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
@@ -2580,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
@@ -2591,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
@@ -2613,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>52</v>
       </c>
@@ -2624,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>52</v>
       </c>
@@ -2635,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>52</v>
       </c>
@@ -2646,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>52</v>
       </c>
@@ -2657,7 +2670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>52</v>
       </c>
@@ -2668,7 +2681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>52</v>
       </c>
@@ -2679,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>52</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>52</v>
       </c>
@@ -2701,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>52</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>52</v>
       </c>
@@ -2723,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>52</v>
       </c>
@@ -2745,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -2756,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>52</v>
       </c>
@@ -2767,7 +2780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
@@ -2778,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>52</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>52</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>52</v>
       </c>
@@ -2811,7 +2824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>52</v>
       </c>
@@ -2822,7 +2835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -2833,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>52</v>
       </c>
@@ -2844,7 +2857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>52</v>
       </c>
@@ -2855,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>52</v>
       </c>
@@ -2866,7 +2879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>52</v>
       </c>
@@ -2877,17 +2890,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -2898,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -2909,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -2920,7 +2933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -2931,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -2942,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -2953,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -2964,7 +2977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -2975,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -2986,7 +2999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -2997,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -3019,7 +3032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -3030,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -3041,7 +3054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -3052,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -3063,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -3074,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -3085,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -3096,7 +3109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -3107,7 +3120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -3118,7 +3131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -3129,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -3140,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>96</v>
       </c>
@@ -3162,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>96</v>
       </c>
@@ -3173,7 +3186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>96</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>96</v>
       </c>
@@ -3195,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>96</v>
       </c>
@@ -3206,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>96</v>
       </c>
@@ -3217,7 +3230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>96</v>
       </c>
@@ -3228,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>96</v>
       </c>
@@ -3239,7 +3252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>96</v>
       </c>
@@ -3250,7 +3263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>96</v>
       </c>
@@ -3261,7 +3274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>96</v>
       </c>
@@ -3272,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>96</v>
       </c>
@@ -3283,17 +3296,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -3304,7 +3317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>133</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>133</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>133</v>
       </c>
@@ -3337,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>133</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>133</v>
       </c>
@@ -3359,7 +3372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>133</v>
       </c>
@@ -3370,7 +3383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>133</v>
       </c>
@@ -3381,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>133</v>
       </c>
@@ -3392,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>133</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>133</v>
       </c>
@@ -3414,7 +3427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>133</v>
       </c>
@@ -3425,7 +3438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>133</v>
       </c>
@@ -3436,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>133</v>
       </c>
@@ -3447,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>133</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>133</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>133</v>
       </c>
@@ -3480,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>133</v>
       </c>
@@ -3491,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>133</v>
       </c>
@@ -3502,7 +3515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>133</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>133</v>
       </c>
@@ -3524,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>133</v>
       </c>
@@ -3535,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>133</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>133</v>
       </c>
@@ -3557,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>133</v>
       </c>
@@ -3568,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>133</v>
       </c>
@@ -3579,7 +3592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>133</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>133</v>
       </c>
@@ -3601,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>133</v>
       </c>
@@ -3612,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>133</v>
       </c>
@@ -3623,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>133</v>
       </c>
@@ -3634,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>133</v>
       </c>
@@ -3645,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>133</v>
       </c>
@@ -3656,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>133</v>
       </c>
@@ -3667,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>133</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>133</v>
       </c>
@@ -3689,17 +3702,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>170</v>
       </c>
@@ -3710,7 +3723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>170</v>
       </c>
@@ -3721,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>170</v>
       </c>
@@ -3732,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>170</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>170</v>
       </c>
@@ -3754,7 +3767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>170</v>
       </c>
@@ -3765,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>170</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>170</v>
       </c>
@@ -3787,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>170</v>
       </c>
@@ -3798,7 +3811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>170</v>
       </c>
@@ -3809,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>170</v>
       </c>
@@ -3820,7 +3833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>170</v>
       </c>
@@ -3831,7 +3844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>170</v>
       </c>
@@ -3842,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>170</v>
       </c>
@@ -3853,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>170</v>
       </c>
@@ -3864,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>170</v>
       </c>
@@ -3875,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>170</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>170</v>
       </c>
@@ -3897,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>170</v>
       </c>
@@ -3908,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>170</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>170</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>170</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>170</v>
       </c>
@@ -3952,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>170</v>
       </c>
@@ -3963,7 +3976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>170</v>
       </c>
@@ -3974,7 +3987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>170</v>
       </c>
@@ -3985,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>170</v>
       </c>
@@ -3996,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>170</v>
       </c>
@@ -4007,7 +4020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>170</v>
       </c>
@@ -4018,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>170</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>170</v>
       </c>
@@ -4040,7 +4053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>170</v>
       </c>
@@ -4051,7 +4064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>170</v>
       </c>
@@ -4062,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>170</v>
       </c>
@@ -4073,7 +4086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>170</v>
       </c>
@@ -4084,17 +4097,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>206</v>
       </c>
@@ -4105,7 +4118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>206</v>
       </c>
@@ -4116,7 +4129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>206</v>
       </c>
@@ -4127,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>206</v>
       </c>
@@ -4138,7 +4151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>206</v>
       </c>
@@ -4149,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>206</v>
       </c>
@@ -4160,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>206</v>
       </c>
@@ -4171,7 +4184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>206</v>
       </c>
@@ -4182,7 +4195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>206</v>
       </c>
@@ -4193,7 +4206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>206</v>
       </c>
@@ -4204,7 +4217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>206</v>
       </c>
@@ -4215,7 +4228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>206</v>
       </c>
@@ -4226,7 +4239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>206</v>
       </c>
@@ -4237,7 +4250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>206</v>
       </c>
@@ -4248,7 +4261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>206</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>206</v>
       </c>
@@ -4270,7 +4283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>206</v>
       </c>
@@ -4281,7 +4294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>206</v>
       </c>
@@ -4292,7 +4305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>206</v>
       </c>
@@ -4303,7 +4316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>206</v>
       </c>
@@ -4314,7 +4327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>206</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>206</v>
       </c>
@@ -4336,17 +4349,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>229</v>
       </c>
@@ -4357,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>229</v>
       </c>
@@ -4368,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>229</v>
       </c>
@@ -4379,7 +4392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>229</v>
       </c>
@@ -4390,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>229</v>
       </c>
@@ -4401,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>229</v>
       </c>
@@ -4412,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>229</v>
       </c>
@@ -4423,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>229</v>
       </c>
@@ -4434,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>229</v>
       </c>
@@ -4445,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>229</v>
       </c>
@@ -4456,7 +4469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>229</v>
       </c>
@@ -4467,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>229</v>
       </c>
@@ -4478,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>229</v>
       </c>
@@ -4489,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>229</v>
       </c>
@@ -4500,7 +4513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>229</v>
       </c>
@@ -4511,7 +4524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>229</v>
       </c>
@@ -4522,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>229</v>
       </c>
@@ -4533,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>229</v>
       </c>
@@ -4544,7 +4557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>229</v>
       </c>
@@ -4555,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>229</v>
       </c>
@@ -4566,7 +4579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>229</v>
       </c>
@@ -4577,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>229</v>
       </c>
@@ -4588,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>229</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>229</v>
       </c>
@@ -4610,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>229</v>
       </c>
@@ -4621,7 +4634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>229</v>
       </c>
@@ -4632,7 +4645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>229</v>
       </c>
@@ -4643,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>229</v>
       </c>
@@ -4654,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>229</v>
       </c>
@@ -4665,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>229</v>
       </c>
@@ -4676,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>229</v>
       </c>
@@ -4687,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>229</v>
       </c>
@@ -4698,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>229</v>
       </c>
@@ -4709,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>229</v>
       </c>
@@ -4720,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>229</v>
       </c>
@@ -4731,17 +4744,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>264</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>264</v>
       </c>
@@ -4763,7 +4776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>264</v>
       </c>
@@ -4774,7 +4787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>264</v>
       </c>
@@ -4785,7 +4798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>264</v>
       </c>
@@ -4796,7 +4809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>264</v>
       </c>
@@ -4807,7 +4820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>264</v>
       </c>
@@ -4818,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>264</v>
       </c>
@@ -4829,7 +4842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>264</v>
       </c>
@@ -4840,7 +4853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>264</v>
       </c>
@@ -4851,7 +4864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>264</v>
       </c>
@@ -4862,7 +4875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>264</v>
       </c>
@@ -4873,7 +4886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>264</v>
       </c>
@@ -4884,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>264</v>
       </c>
@@ -4895,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>264</v>
       </c>
@@ -4906,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>264</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>264</v>
       </c>
@@ -4928,7 +4941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>264</v>
       </c>
@@ -4939,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>264</v>
       </c>
@@ -4950,17 +4963,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="1"/>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="1"/>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>284</v>
       </c>
@@ -4971,7 +4984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>284</v>
       </c>
@@ -4982,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>284</v>
       </c>
@@ -4993,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>284</v>
       </c>
@@ -5004,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>284</v>
       </c>
@@ -5015,7 +5028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>284</v>
       </c>
@@ -5026,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>284</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>284</v>
       </c>
@@ -5048,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>284</v>
       </c>
@@ -5059,7 +5072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>284</v>
       </c>
@@ -5070,7 +5083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>284</v>
       </c>
@@ -5081,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>284</v>
       </c>
@@ -5092,7 +5105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>284</v>
       </c>
@@ -5103,7 +5116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>284</v>
       </c>
@@ -5114,7 +5127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>284</v>
       </c>
@@ -5125,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>284</v>
       </c>
@@ -5136,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>284</v>
       </c>
@@ -5147,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>284</v>
       </c>
@@ -5158,7 +5171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>284</v>
       </c>
@@ -5169,7 +5182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>284</v>
       </c>
@@ -5180,7 +5193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>284</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>284</v>
       </c>
@@ -5202,7 +5215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>284</v>
       </c>
@@ -5213,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>284</v>
       </c>
@@ -5224,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>284</v>
       </c>
@@ -5235,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>284</v>
       </c>
@@ -5246,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>284</v>
       </c>
@@ -5257,7 +5270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>284</v>
       </c>
@@ -5268,7 +5281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>284</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>284</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>284</v>
       </c>
@@ -5301,7 +5314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>284</v>
       </c>
@@ -5312,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>284</v>
       </c>
@@ -5323,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>284</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>284</v>
       </c>
@@ -5345,7 +5358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>284</v>
       </c>
@@ -5356,7 +5369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>284</v>
       </c>
@@ -5367,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>284</v>
       </c>
@@ -5378,17 +5391,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>323</v>
       </c>
@@ -5399,7 +5412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>323</v>
       </c>
@@ -5410,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>323</v>
       </c>
@@ -5421,7 +5434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>323</v>
       </c>
@@ -5432,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>323</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>323</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>323</v>
       </c>
@@ -5465,7 +5478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>323</v>
       </c>
@@ -5476,7 +5489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>323</v>
       </c>
@@ -5487,7 +5500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>323</v>
       </c>
@@ -5498,7 +5511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>323</v>
       </c>
@@ -5509,7 +5522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>323</v>
       </c>
@@ -5520,7 +5533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>323</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>323</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>323</v>
       </c>
@@ -5553,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>323</v>
       </c>
@@ -5564,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>323</v>
       </c>
@@ -5575,7 +5588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>323</v>
       </c>
@@ -5586,17 +5599,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>342</v>
       </c>
@@ -5607,7 +5620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>342</v>
       </c>
@@ -5618,7 +5631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>342</v>
       </c>
@@ -5629,7 +5642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>342</v>
       </c>
@@ -5640,7 +5653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>342</v>
       </c>
@@ -5651,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>342</v>
       </c>
@@ -5662,7 +5675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>342</v>
       </c>
@@ -5673,7 +5686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>342</v>
       </c>
@@ -5684,7 +5697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>342</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>342</v>
       </c>
@@ -5706,7 +5719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>342</v>
       </c>
@@ -5717,7 +5730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>342</v>
       </c>
@@ -5728,7 +5741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>342</v>
       </c>
@@ -5739,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>342</v>
       </c>
@@ -5750,7 +5763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>342</v>
       </c>
@@ -5761,7 +5774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>342</v>
       </c>
@@ -5772,7 +5785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>342</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>342</v>
       </c>
@@ -5794,7 +5807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>342</v>
       </c>
@@ -5805,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>342</v>
       </c>
@@ -5816,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>342</v>
       </c>
@@ -5827,7 +5840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>342</v>
       </c>
@@ -5838,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>342</v>
       </c>
@@ -5849,7 +5862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>342</v>
       </c>
@@ -5860,7 +5873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>342</v>
       </c>
@@ -5871,7 +5884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>342</v>
       </c>
@@ -5882,7 +5895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>342</v>
       </c>
@@ -5893,7 +5906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>342</v>
       </c>
@@ -5904,7 +5917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>342</v>
       </c>
@@ -5915,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>342</v>
       </c>
@@ -5926,7 +5939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>342</v>
       </c>
@@ -5937,7 +5950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>342</v>
       </c>
@@ -5948,7 +5961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>342</v>
       </c>
@@ -5959,7 +5972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>342</v>
       </c>
@@ -5970,7 +5983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>342</v>
       </c>
@@ -5981,7 +5994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>342</v>
       </c>
@@ -5992,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>342</v>
       </c>
@@ -6003,7 +6016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>342</v>
       </c>
@@ -6014,7 +6027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>342</v>
       </c>
@@ -6025,7 +6038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>342</v>
       </c>
@@ -6036,7 +6049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>342</v>
       </c>
@@ -6047,7 +6060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>342</v>
       </c>
@@ -6058,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>342</v>
       </c>
@@ -6069,7 +6082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>342</v>
       </c>
@@ -6080,17 +6093,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="1"/>
     </row>
-    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>386</v>
       </c>
@@ -6101,7 +6114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>386</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>386</v>
       </c>
@@ -6123,7 +6136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>386</v>
       </c>
@@ -6134,7 +6147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>386</v>
       </c>
@@ -6145,7 +6158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>386</v>
       </c>
@@ -6156,12 +6169,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="1"/>
@@ -6826,17 +6839,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="1"/>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>452</v>
       </c>
@@ -6847,7 +6860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>452</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>452</v>
       </c>
@@ -6869,7 +6882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>452</v>
       </c>
@@ -6880,7 +6893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>452</v>
       </c>
@@ -6891,7 +6904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>452</v>
       </c>
@@ -6902,7 +6915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>452</v>
       </c>
@@ -6913,7 +6926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>452</v>
       </c>
@@ -6924,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>452</v>
       </c>
@@ -6935,7 +6948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>452</v>
       </c>
